--- a/biology/Zoologie/Chiens_de_race,_les_maîtres_fous/Chiens_de_race,_les_maîtres_fous.xlsx
+++ b/biology/Zoologie/Chiens_de_race,_les_maîtres_fous/Chiens_de_race,_les_maîtres_fous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chiens_de_race,_les_ma%C3%AEtres_fous</t>
+          <t>Chiens_de_race,_les_maîtres_fous</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiens de race, les maîtres fous (anglais : Pedigree Dogs Exposed) est un documentaire d'investigation anglais diffusé originellement sur la BBC le 19 août 2008, puis en français sur France 2 en 2010. Ce documentaire aborde la question de la santé du chien et des sélections d'élevage sur les hypertypes, incriminant notamment le Crufts et The Kennel Club.
  Portail des canidés   Portail de la télévision   Portail de la BBC   Portail des années 2000                  </t>
